--- a/biology/Histoire de la zoologie et de la botanique/Carl_Christian_Gmelin/Carl_Christian_Gmelin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Christian_Gmelin/Carl_Christian_Gmelin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Christian Gmelin est un botaniste badois, né le 18 mars 1762 à Badenweiler et mort le 26 juin 1837 (à 75 ans) à Karlsruhe.
 </t>
@@ -511,17 +523,19 @@
           <t>Productions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1784 - Consideratio generalis filicum / quam ... solemni eruditorum examini submittit Carolus Christianus Gmelin; Erlangae : Kunstmann, 1784.
-ab 1805 -Flora Badensis Alsatica et confinium regionum Cis et Transrhenana : plantas a lacu Bodamico usque ad confluentem Mosellae et Rheni sponte nascentes exhibens secundum systema sexuale cum iconibus ad naturam delineatis / auctore Carolo Christiano Gmelin. – Carlsruhae - Band: 1 (1805). - XXXII, 768 S.; Band: 2 (1806). - 717 S., V Bl. : Ill.; (lat.); Band: 3 (1808). - 795 S., IV Bl. : Ill.; (lat.); Band: 4 Supplementa cum Indicibus. - 1826. - [2] Bl., 807 S., X Bl. : Ill.; (lat.) (Band 1, Band 2, Band 3, Band 4).
+ab 1805 -Flora Badensis Alsatica et confinium regionum Cis et Transrhenana : plantas a lacu Bodamico usque ad confluentem Mosellae et Rheni sponte nascentes exhibens secundum systema sexuale cum iconibus ad naturam delineatis / auctore Carolo Christiano Gmelin. – Carlsruhae - Band: 1 (1805). - XXXII, 768 S.; Band: 2 (1806). - 717 S., V Bl. : Ill.; (lat.); Band: 3 (1808). - 795 S., IV Bl. : Ill.; (lat.); Band: 4 Supplementa cum Indicibus. - 1826. -  Bl., 807 S., X Bl. : Ill.; (lat.) (Band 1, Band 2, Band 3, Band 4).
 1806 - Gemeinnützige systematische Naturgeschichte für gebildete Leser; Nach d. Linneischen Natursystem entworfen von Carl Christian Gmelin; Mannheim: Neues Industrie-Contor, 1806.
 1809 - Ueber den Einfluß der Naturwissenschaft auf das gesammte  Staatswohl : vorzüglich auf Land und Zeit berechnet; nebst Vorschlägen zur Anpflanzung entsprechender Surrogate für die kostbaren Colonialwaaren als ... / von C. C. Gmelin. - Carlsruhe : Müller, 1809. - XX, 434 S.; (dt.)
 1811 - Hortus magni ducis Badensis Carlsruhanus : nomina si nescis, periit cognitio rerum / [Gmelin]. - Carlsruhae : Typis Macklotianis, 1811. - X, 288 S.; (lat.)
 1817 - Nothhülfe gegen Mangel aus Mißwachs oder Beschreibung wildwachsender Pflanzen welche bei Mangel der angebauten als ergiebige und gesunde Nahrung für Menschen und Thiere gebraucht werden können : Nebst Vorschlägen den Folgen des Mißwachses vorzubeugen und die Landes-Kultur zu verbessern / Von Carl Christian Gmelin. - Carlsruhe : C. F. Müller, 1817. - XIV, 322 S.; (dt.)
 1818 - Gemeinnützige systematische Naturgeschichte der Fische für gebildete Leser : nach dem Linneischen Natursystem / entworfen von Carl Christian Gmelin. - Mannheim : Nehdeck, 1818. - X, 383 S., 113 Taf. : zahlr. Ill.; (dt.)
 1825 - Beschreibung der Milchblätter-Schwämme im Grossherzogtum Baden und dessen nächsten Umgebungen, als Beitrag zur Toxicologie / Vom Verfasser der Flora Badensis Alsat. et confin. Regionum; Karlsruhe, 1825; mit 1 color Tafel.
-1839 (posth.) - Gemeinnützige systematische Naturgeschichte der Amphibien / entworfen vonn Carl Christian Gmelin. - 2. Ausg.. - Mannheim : Löffler, 1839. - VIII, [2] Bl., 224 S., [10] Bl. : Ill.; (dt.)
+1839 (posth.) - Gemeinnützige systematische Naturgeschichte der Amphibien / entworfen vonn Carl Christian Gmelin. - 2. Ausg.. - Mannheim : Löffler, 1839. - VIII,  Bl., 224 S.,  Bl. : Ill.; (dt.)
 1824 (nicht erschienen und Manuskript verschollen) – Beschreibung der Mineralien im Großherzogthum Baden und deren nächsten Umgebung.</t>
         </is>
       </c>
